--- a/sputnik/personal/ee/90ee.xlsx
+++ b/sputnik/personal/ee/90ee.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -43,6 +34,18 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
   </si>
 </sst>
 </file>
@@ -50,7 +53,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -92,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,39 +118,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -160,7 +135,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -169,30 +144,19 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -500,49 +464,55 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:F15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="11">
         <v>43082</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -554,9 +524,11 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -566,32 +538,59 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43466</v>
+      <c r="A4" s="11">
+        <v>43892</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="17">
-        <v>4.57</v>
-      </c>
-      <c r="F4" s="6"/>
+      <c r="C4" s="3">
+        <v>2320</v>
+      </c>
+      <c r="D4" s="3">
+        <f>SUM(C4,-C2)</f>
+        <v>1897</v>
+      </c>
+      <c r="E4" s="9">
+        <v>4.49</v>
+      </c>
+      <c r="F4" s="6">
+        <f>PRODUCT(D4,E4)</f>
+        <v>8517.5300000000007</v>
+      </c>
+      <c r="G4" s="13">
+        <f>SUM(F4,F5)</f>
+        <v>10738.550000000001</v>
+      </c>
+      <c r="H4" s="13">
+        <v>10738.55</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="18">
-        <v>2.39</v>
-      </c>
-      <c r="F5" s="6"/>
+      <c r="C5" s="3">
+        <v>1025</v>
+      </c>
+      <c r="D5" s="3">
+        <f>SUM(C5,-C3)</f>
+        <v>914</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F5" s="6">
+        <f>PRODUCT(D5,E5)</f>
+        <v>2221.02</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -600,6 +599,8 @@
       <c r="D6" s="3"/>
       <c r="E6" s="8"/>
       <c r="F6" s="6"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -608,153 +609,8 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/90ee.xlsx
+++ b/sputnik/personal/ee/90ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -122,14 +122,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -140,9 +137,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -464,10 +458,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -486,63 +480,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="9">
         <v>43082</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>423</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>111</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>43892</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -552,21 +546,21 @@
         <v>2320</v>
       </c>
       <c r="D4" s="3">
-        <f>SUM(C4,-C2)</f>
+        <f t="shared" ref="D4:D23" si="0">SUM(C4,-C2)</f>
         <v>1897</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>4.49</v>
       </c>
-      <c r="F4" s="6">
-        <f>PRODUCT(D4,E4)</f>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F9" si="1">PRODUCT(D4,E4)</f>
         <v>8517.5300000000007</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="11">
         <f>SUM(F4,F5)</f>
         <v>10738.550000000001</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="11">
         <v>10738.55</v>
       </c>
     </row>
@@ -579,38 +573,579 @@
         <v>1025</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM(C5,-C3)</f>
+        <f t="shared" si="0"/>
         <v>914</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F5" s="6">
-        <f>PRODUCT(D5,E5)</f>
+      <c r="F5" s="5">
+        <f t="shared" si="1"/>
         <v>2221.02</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="A6" s="9">
+        <v>43927</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2470</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="1"/>
+        <v>673.5</v>
+      </c>
+      <c r="G6" s="11">
+        <f>SUM(F6,F7)</f>
+        <v>795</v>
+      </c>
+      <c r="H6" s="11">
+        <v>795</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1075</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="1"/>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>43927</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2620</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="1"/>
+        <v>673.5</v>
+      </c>
+      <c r="G8" s="11">
+        <f>SUM(F8,F9)</f>
+        <v>795</v>
+      </c>
+      <c r="H8" s="11">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1125</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="1"/>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>43928</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2770</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10:F11" si="2">PRODUCT(D10,E10)</f>
+        <v>673.5</v>
+      </c>
+      <c r="G10" s="11">
+        <f>SUM(F10,F11)</f>
+        <v>795</v>
+      </c>
+      <c r="H10" s="11">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1175</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="2"/>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>43929</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2920</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F13" si="3">PRODUCT(D12,E12)</f>
+        <v>673.5</v>
+      </c>
+      <c r="G12" s="11">
+        <f>SUM(F12,F13)</f>
+        <v>795</v>
+      </c>
+      <c r="H12" s="11">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1225</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="3"/>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>43930</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3070</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ref="F14:F15" si="4">PRODUCT(D14,E14)</f>
+        <v>673.5</v>
+      </c>
+      <c r="G14" s="11">
+        <f>SUM(F14,F15)</f>
+        <v>795</v>
+      </c>
+      <c r="H14" s="11">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1275</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="4"/>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>43931</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3220</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:F17" si="5">PRODUCT(D16,E16)</f>
+        <v>673.5</v>
+      </c>
+      <c r="G16" s="11">
+        <f>SUM(F16,F17)</f>
+        <v>795</v>
+      </c>
+      <c r="H16" s="11">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1325</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="5"/>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>43934</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3370</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ref="F18:F21" si="6">PRODUCT(D18,E18)</f>
+        <v>673.5</v>
+      </c>
+      <c r="G18" s="11">
+        <f>SUM(F18,F19)</f>
+        <v>795</v>
+      </c>
+      <c r="H18" s="11">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1375</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="6"/>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>43934</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3520</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="6"/>
+        <v>673.5</v>
+      </c>
+      <c r="G20" s="11">
+        <f>SUM(F20,F21)</f>
+        <v>795</v>
+      </c>
+      <c r="H20" s="11">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1425</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="6"/>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>43938</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3670</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="E22" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" ref="F22:F23" si="7">PRODUCT(D22,E22)</f>
+        <v>673.5</v>
+      </c>
+      <c r="G22" s="11">
+        <f>SUM(F22,F23)</f>
+        <v>795</v>
+      </c>
+      <c r="H22" s="11">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1475</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E23" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="7"/>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>43941</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3720</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:D25" si="8">SUM(C24,-C22)</f>
+        <v>50</v>
+      </c>
+      <c r="E24" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" ref="F24:F25" si="9">PRODUCT(D24,E24)</f>
+        <v>224.5</v>
+      </c>
+      <c r="G24" s="11">
+        <f>SUM(F24,F25)</f>
+        <v>589</v>
+      </c>
+      <c r="H24" s="11">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1625</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="E25" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="9"/>
+        <v>364.5</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>43948</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3720</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" ref="D26:D27" si="10">SUM(C26,-C24)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" ref="F26:F27" si="11">PRODUCT(D26,E26)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="11">
+        <f>SUM(F26,F27)</f>
+        <v>486.00000000000006</v>
+      </c>
+      <c r="H26" s="11">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1825</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="E27" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="11"/>
+        <v>486.00000000000006</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/90ee.xlsx
+++ b/sputnik/personal/ee/90ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -458,10 +458,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1146,6 +1146,57 @@
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>43982</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3840</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" ref="D28:D29" si="12">SUM(C28,-C26)</f>
+        <v>120</v>
+      </c>
+      <c r="E28" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" ref="F28:F29" si="13">PRODUCT(D28,E28)</f>
+        <v>538.80000000000007</v>
+      </c>
+      <c r="G28" s="11">
+        <f>SUM(F28,F29)</f>
+        <v>733.2</v>
+      </c>
+      <c r="H28" s="11">
+        <v>733.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1905</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="E29" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="13"/>
+        <v>194.4</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/90ee.xlsx
+++ b/sputnik/personal/ee/90ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -122,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -151,6 +151,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -458,10 +459,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1197,6 +1198,67 @@
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>44011</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>4040</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" ref="D30:D31" si="14">SUM(C30,-C28)</f>
+        <v>200</v>
+      </c>
+      <c r="E30" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" ref="F30:F31" si="15">PRODUCT(D30,E30)</f>
+        <v>898</v>
+      </c>
+      <c r="G30" s="11">
+        <f>SUM(F30,F31)</f>
+        <v>898</v>
+      </c>
+      <c r="H30" s="11">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1905</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="12">
+        <f>SUM(G2:G31)</f>
+        <v>20599.750000000004</v>
+      </c>
+      <c r="H32" s="1">
+        <f>SUM(H2:H31)</f>
+        <v>20599.75</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/90ee.xlsx
+++ b/sputnik/personal/ee/90ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -459,10 +459,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1251,13 +1251,115 @@
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G32" s="12">
-        <f>SUM(G2:G31)</f>
-        <v>20599.750000000004</v>
-      </c>
-      <c r="H32" s="1">
-        <f>SUM(H2:H31)</f>
-        <v>20599.75</v>
+      <c r="A32" s="9">
+        <v>44050</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>4190</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" ref="D32:D33" si="16">SUM(C32,-C30)</f>
+        <v>150</v>
+      </c>
+      <c r="E32" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" ref="F32:F33" si="17">PRODUCT(D32,E32)</f>
+        <v>706.5</v>
+      </c>
+      <c r="G32" s="11">
+        <f>SUM(F32,F33)</f>
+        <v>834</v>
+      </c>
+      <c r="H32" s="11">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1955</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="E33" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="17"/>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>44074</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>4390</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" ref="D34:D35" si="18">SUM(C34,-C32)</f>
+        <v>200</v>
+      </c>
+      <c r="E34" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" ref="F34:F35" si="19">PRODUCT(D34,E34)</f>
+        <v>942</v>
+      </c>
+      <c r="G34" s="11">
+        <f>SUM(F34,F35)</f>
+        <v>942</v>
+      </c>
+      <c r="H34" s="11">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1955</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G36" s="12">
+        <f>SUM(G2:G33)</f>
+        <v>21433.750000000004</v>
+      </c>
+      <c r="H36" s="12">
+        <f>SUM(H2:H33)</f>
+        <v>21433.75</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/90ee.xlsx
+++ b/sputnik/personal/ee/90ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -459,10 +459,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1353,11 +1353,113 @@
       <c r="H35" s="11"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G36" s="12">
+      <c r="A36" s="9">
+        <v>44087</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>4440</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" ref="D36:D37" si="20">SUM(C36,-C34)</f>
+        <v>50</v>
+      </c>
+      <c r="E36" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" ref="F36:F37" si="21">PRODUCT(D36,E36)</f>
+        <v>235.5</v>
+      </c>
+      <c r="G36" s="11">
+        <f>SUM(F36,F37)</f>
+        <v>618</v>
+      </c>
+      <c r="H36" s="11">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2105</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="20"/>
+        <v>150</v>
+      </c>
+      <c r="E37" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="21"/>
+        <v>382.5</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>44098</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3">
+        <v>4490</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" ref="D38:D39" si="22">SUM(C38,-C36)</f>
+        <v>50</v>
+      </c>
+      <c r="E38" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" ref="F38:F39" si="23">PRODUCT(D38,E38)</f>
+        <v>235.5</v>
+      </c>
+      <c r="G38" s="11">
+        <f>SUM(F38,F39)</f>
+        <v>618</v>
+      </c>
+      <c r="H38" s="11">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2255</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="22"/>
+        <v>150</v>
+      </c>
+      <c r="E39" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="23"/>
+        <v>382.5</v>
+      </c>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G40" s="12">
         <f>SUM(G2:G33)</f>
         <v>21433.750000000004</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H40" s="12">
         <f>SUM(H2:H33)</f>
         <v>21433.75</v>
       </c>

--- a/sputnik/personal/ee/90ee.xlsx
+++ b/sputnik/personal/ee/90ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -459,10 +459,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1455,13 +1455,217 @@
       <c r="H39" s="11"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G40" s="12">
-        <f>SUM(G2:G33)</f>
-        <v>21433.750000000004</v>
-      </c>
-      <c r="H40" s="12">
-        <f>SUM(H2:H33)</f>
-        <v>21433.75</v>
+      <c r="A40" s="9">
+        <v>44112</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3">
+        <v>4590</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" ref="D40:D43" si="24">SUM(C40,-C38)</f>
+        <v>100</v>
+      </c>
+      <c r="E40" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" ref="F40:F41" si="25">PRODUCT(D40,E40)</f>
+        <v>471</v>
+      </c>
+      <c r="G40" s="11">
+        <f>SUM(F40,F41)</f>
+        <v>726</v>
+      </c>
+      <c r="H40" s="11">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2355</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="24"/>
+        <v>100</v>
+      </c>
+      <c r="E41" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="25"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>44122</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3">
+        <v>4690</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="24"/>
+        <v>100</v>
+      </c>
+      <c r="E42" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" ref="F42:F43" si="26">PRODUCT(D42,E42)</f>
+        <v>471</v>
+      </c>
+      <c r="G42" s="11">
+        <f>SUM(F42,F43)</f>
+        <v>726</v>
+      </c>
+      <c r="H42" s="11">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2455</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="24"/>
+        <v>100</v>
+      </c>
+      <c r="E43" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="26"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>44127</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3">
+        <v>4790</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" ref="D44:D45" si="27">SUM(C44,-C42)</f>
+        <v>100</v>
+      </c>
+      <c r="E44" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F44" s="5">
+        <f t="shared" ref="F44:F45" si="28">PRODUCT(D44,E44)</f>
+        <v>471</v>
+      </c>
+      <c r="G44" s="11">
+        <f>SUM(F44,F45)</f>
+        <v>726</v>
+      </c>
+      <c r="H44" s="11">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3">
+        <v>2555</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+      <c r="E45" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F45" s="5">
+        <f t="shared" si="28"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>44134</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="3">
+        <v>5190</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" ref="D46:D47" si="29">SUM(C46,-C44)</f>
+        <v>400</v>
+      </c>
+      <c r="E46" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F46" s="5">
+        <f t="shared" ref="F46:F47" si="30">PRODUCT(D46,E46)</f>
+        <v>1884</v>
+      </c>
+      <c r="G46" s="11">
+        <f>SUM(F46,F47)</f>
+        <v>2649</v>
+      </c>
+      <c r="H46" s="11">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="3">
+        <v>2855</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" si="29"/>
+        <v>300</v>
+      </c>
+      <c r="E47" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F47" s="5">
+        <f t="shared" si="30"/>
+        <v>765</v>
+      </c>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G48" s="12">
+        <f>SUM(G2:G41)</f>
+        <v>24337.750000000004</v>
+      </c>
+      <c r="H48" s="12">
+        <f>SUM(H2:H41)</f>
+        <v>24337.75</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/90ee.xlsx
+++ b/sputnik/personal/ee/90ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -456,10 +456,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -738,11 +738,62 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G12" s="11">
+      <c r="A12" s="9">
+        <v>44188</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>8239</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="8">SUM(C12,-C10)</f>
+        <v>2022</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F13" si="9">PRODUCT(D12,E12)</f>
+        <v>9523.6200000000008</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(F12,F13)</f>
+        <v>12435.720000000001</v>
+      </c>
+      <c r="H12" s="10">
+        <v>12435.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4498</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="8"/>
+        <v>1142</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="9"/>
+        <v>2912.1</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="11">
         <f>SUM(G2:G3)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H14" s="11">
         <f>SUM(H2:H3)</f>
         <v>0</v>
       </c>

--- a/sputnik/personal/ee/90ee.xlsx
+++ b/sputnik/personal/ee/90ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -456,10 +456,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -789,11 +789,62 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G14" s="11">
+      <c r="A14" s="9">
+        <v>44216</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>9937</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="10">SUM(C14,-C12)</f>
+        <v>1698</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ref="F14:F15" si="11">PRODUCT(D14,E14)</f>
+        <v>7997.58</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM(F14,F15)</f>
+        <v>10226.279999999999</v>
+      </c>
+      <c r="H14" s="10">
+        <v>10226.280000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5372</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="10"/>
+        <v>874</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="11"/>
+        <v>2228.6999999999998</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16" s="11">
         <f>SUM(G2:G3)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H16" s="11">
         <f>SUM(H2:H3)</f>
         <v>0</v>
       </c>

--- a/sputnik/personal/ee/90ee.xlsx
+++ b/sputnik/personal/ee/90ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -456,10 +456,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -840,13 +840,166 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G16" s="11">
-        <f>SUM(G2:G3)</f>
+      <c r="A16" s="9">
+        <v>44250</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="11">
-        <f>SUM(H2:H3)</f>
+      <c r="C16" s="3">
+        <v>12524</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="12">SUM(C16,-C14)</f>
+        <v>2587</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:F17" si="13">PRODUCT(D16,E16)</f>
+        <v>12184.77</v>
+      </c>
+      <c r="G16" s="10">
+        <f>SUM(F16,F17)</f>
+        <v>15951.12</v>
+      </c>
+      <c r="H16" s="10">
+        <v>15951.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6849</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="12"/>
+        <v>1477</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="13"/>
+        <v>3766.35</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>44284</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>14421</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="14">SUM(C18,-C16)</f>
+        <v>1897</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ref="F18:F19" si="15">PRODUCT(D18,E18)</f>
+        <v>8934.8700000000008</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(F18,F19)</f>
+        <v>11778.12</v>
+      </c>
+      <c r="H18" s="10">
+        <v>11778.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>7964</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="14"/>
+        <v>1115</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="15"/>
+        <v>2843.25</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>44315</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>15173</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="16">SUM(C20,-C18)</f>
+        <v>752</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20:F21" si="17">PRODUCT(D20,E20)</f>
+        <v>3541.92</v>
+      </c>
+      <c r="G20" s="10">
+        <f>SUM(F20,F21)</f>
+        <v>4936.7700000000004</v>
+      </c>
+      <c r="H20" s="10">
+        <v>4936.7700000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>8511</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="16"/>
+        <v>547</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="17"/>
+        <v>1394.85</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="11">
+        <f>SUM(G2:G21)</f>
+        <v>65543.73000000001</v>
+      </c>
+      <c r="H22" s="11">
+        <f>SUM(H2:H21)</f>
+        <v>65543.73000000001</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/90ee.xlsx
+++ b/sputnik/personal/ee/90ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>оплачено</t>
+  </si>
+  <si>
+    <t>24/0/2021</t>
   </si>
 </sst>
 </file>
@@ -456,10 +459,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -993,11 +996,62 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G22" s="11">
+      <c r="A22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>15653</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D23" si="18">SUM(C22,-C20)</f>
+        <v>480</v>
+      </c>
+      <c r="E22" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" ref="F22:F23" si="19">PRODUCT(D22,E22)</f>
+        <v>2260.8000000000002</v>
+      </c>
+      <c r="G22" s="10">
+        <f>SUM(F22,F23)</f>
+        <v>2798.8500000000004</v>
+      </c>
+      <c r="H22" s="10">
+        <v>2798.95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>8722</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="18"/>
+        <v>211</v>
+      </c>
+      <c r="E23" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="19"/>
+        <v>538.04999999999995</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="11">
         <f>SUM(G2:G21)</f>
         <v>65543.73000000001</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H24" s="11">
         <f>SUM(H2:H21)</f>
         <v>65543.73000000001</v>
       </c>

--- a/sputnik/personal/ee/90ee.xlsx
+++ b/sputnik/personal/ee/90ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>24/0/2021</t>
   </si>
 </sst>
 </file>
@@ -459,10 +456,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -996,8 +993,8 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>10</v>
+      <c r="A22" s="9">
+        <v>44340</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
@@ -1047,11 +1044,62 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G24" s="11">
+      <c r="A24" s="9">
+        <v>44376</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>16063</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:D25" si="20">SUM(C24,-C22)</f>
+        <v>410</v>
+      </c>
+      <c r="E24" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" ref="F24:F25" si="21">PRODUCT(D24,E24)</f>
+        <v>1931.1</v>
+      </c>
+      <c r="G24" s="10">
+        <f>SUM(F24,F25)</f>
+        <v>2209.0499999999997</v>
+      </c>
+      <c r="H24" s="10">
+        <v>2209.0500000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>8831</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="20"/>
+        <v>109</v>
+      </c>
+      <c r="E25" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="21"/>
+        <v>277.95</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="11">
         <f>SUM(G2:G21)</f>
         <v>65543.73000000001</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H26" s="11">
         <f>SUM(H2:H21)</f>
         <v>65543.73000000001</v>
       </c>

--- a/sputnik/personal/ee/90ee.xlsx
+++ b/sputnik/personal/ee/90ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -456,10 +456,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1095,11 +1095,62 @@
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G26" s="11">
+      <c r="A26" s="9">
+        <v>44417</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>16633</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" ref="D26:D27" si="22">SUM(C26,-C24)</f>
+        <v>570</v>
+      </c>
+      <c r="E26" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" ref="F26:F27" si="23">PRODUCT(D26,E26)</f>
+        <v>2827.2</v>
+      </c>
+      <c r="G26" s="10">
+        <f>SUM(F26,F27)</f>
+        <v>3411.4399999999996</v>
+      </c>
+      <c r="H26" s="10">
+        <v>3411.44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>9049</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="22"/>
+        <v>218</v>
+      </c>
+      <c r="E27" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="23"/>
+        <v>584.24</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="11">
         <f>SUM(G2:G21)</f>
         <v>65543.73000000001</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H28" s="11">
         <f>SUM(H2:H21)</f>
         <v>65543.73000000001</v>
       </c>

--- a/sputnik/personal/ee/90ee.xlsx
+++ b/sputnik/personal/ee/90ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -456,10 +456,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1146,13 +1146,64 @@
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G28" s="11">
-        <f>SUM(G2:G21)</f>
-        <v>65543.73000000001</v>
-      </c>
-      <c r="H28" s="11">
-        <f>SUM(H2:H21)</f>
-        <v>65543.73000000001</v>
+      <c r="A28" s="9">
+        <v>44441</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>16912</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" ref="D28:D29" si="24">SUM(C28,-C26)</f>
+        <v>279</v>
+      </c>
+      <c r="E28" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" ref="F28:F29" si="25">PRODUCT(D28,E28)</f>
+        <v>1383.84</v>
+      </c>
+      <c r="G28" s="10">
+        <f>SUM(F28,F29)</f>
+        <v>1592.8799999999999</v>
+      </c>
+      <c r="H28" s="10">
+        <v>1592.88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>9127</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="24"/>
+        <v>78</v>
+      </c>
+      <c r="E29" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="25"/>
+        <v>209.04000000000002</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="11">
+        <f>SUM(G2:G29)</f>
+        <v>75555.950000000026</v>
+      </c>
+      <c r="H30" s="11">
+        <f>SUM(H2:H29)</f>
+        <v>75556.050000000017</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/90ee.xlsx
+++ b/sputnik/personal/ee/90ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -87,12 +87,24 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -122,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -149,6 +161,12 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -456,10 +474,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -504,20 +522,33 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>44112</v>
+      <c r="A2" s="12">
+        <v>44473</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>4590</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+        <v>17566</v>
+      </c>
+      <c r="D2" s="3">
+        <f>SUM(C2,-C4)</f>
+        <v>654</v>
+      </c>
+      <c r="E2" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F2" s="5">
+        <f t="shared" ref="F2:F3" si="0">PRODUCT(D2,E2)</f>
+        <v>3243.84</v>
+      </c>
+      <c r="G2" s="10">
+        <f>SUM(F2,F3)</f>
+        <v>4787.5200000000004</v>
+      </c>
+      <c r="H2" s="10">
+        <v>4787.5200000000004</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -525,41 +556,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>2355</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="5"/>
+        <v>9703</v>
+      </c>
+      <c r="D3" s="3">
+        <f>SUM(C3,-C5)</f>
+        <v>576</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" si="0"/>
+        <v>1543.68</v>
+      </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>44122</v>
+      <c r="A4" s="13">
+        <v>44441</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>4690</v>
+        <v>16912</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D5" si="0">SUM(C4,-C2)</f>
-        <v>100</v>
+        <f>SUM(C4,-C6)</f>
+        <v>279</v>
       </c>
       <c r="E4" s="7">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F5" si="1">PRODUCT(D4,E4)</f>
-        <v>471</v>
+        <f t="shared" ref="F4:F7" si="1">PRODUCT(D4,E4)</f>
+        <v>1383.84</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>726</v>
+        <v>1592.8799999999999</v>
       </c>
       <c r="H4" s="10">
-        <v>726</v>
+        <v>1592.88</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -568,49 +607,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>2455</v>
+        <v>9127</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(C5,-C7)</f>
+        <v>78</v>
       </c>
       <c r="E5" s="8">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="1"/>
-        <v>254.99999999999997</v>
+        <v>209.04000000000002</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>44127</v>
+        <v>44417</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>4790</v>
+        <v>16633</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:D7" si="2">SUM(C6,-C4)</f>
-        <v>100</v>
+        <f>SUM(C6,-C8)</f>
+        <v>570</v>
       </c>
       <c r="E6" s="7">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" ref="F6:F7" si="3">PRODUCT(D6,E6)</f>
-        <v>471</v>
+        <f t="shared" si="1"/>
+        <v>2827.2</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>726</v>
+        <v>3411.4399999999996</v>
       </c>
       <c r="H6" s="10">
-        <v>726</v>
+        <v>3411.44</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -619,50 +658,37 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>2555</v>
+        <v>9049</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f>SUM(C7,-C9)</f>
+        <v>218</v>
       </c>
       <c r="E7" s="8">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="3"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="1"/>
+        <v>584.24</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
-        <v>44134</v>
+        <v>44376</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>5190</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" ref="D8:D9" si="4">SUM(C8,-C6)</f>
-        <v>400</v>
-      </c>
-      <c r="E8" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" ref="F8:F9" si="5">PRODUCT(D8,E8)</f>
-        <v>1884</v>
-      </c>
-      <c r="G8" s="10">
-        <f>SUM(F8,F9)</f>
-        <v>2649</v>
-      </c>
-      <c r="H8" s="10">
-        <v>2649</v>
-      </c>
+        <v>16063</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -670,540 +696,22 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>2855</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="4"/>
-        <v>300</v>
-      </c>
-      <c r="E9" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="5"/>
-        <v>765</v>
-      </c>
+        <v>8831</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>44155</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>6217</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" ref="D10:D11" si="6">SUM(C10,-C8)</f>
-        <v>1027</v>
-      </c>
-      <c r="E10" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" ref="F10:F11" si="7">PRODUCT(D10,E10)</f>
-        <v>4837.17</v>
-      </c>
-      <c r="G10" s="10">
-        <f>SUM(F10,F11)</f>
-        <v>6114.72</v>
-      </c>
-      <c r="H10" s="10">
-        <v>6114.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>3356</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="6"/>
-        <v>501</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="7"/>
-        <v>1277.55</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>44188</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>8239</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12:D13" si="8">SUM(C12,-C10)</f>
-        <v>2022</v>
-      </c>
-      <c r="E12" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" ref="F12:F13" si="9">PRODUCT(D12,E12)</f>
-        <v>9523.6200000000008</v>
-      </c>
-      <c r="G12" s="10">
-        <f>SUM(F12,F13)</f>
-        <v>12435.720000000001</v>
-      </c>
-      <c r="H12" s="10">
-        <v>12435.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>4498</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="8"/>
-        <v>1142</v>
-      </c>
-      <c r="E13" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="9"/>
-        <v>2912.1</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>44216</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>9937</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" ref="D14:D15" si="10">SUM(C14,-C12)</f>
-        <v>1698</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" ref="F14:F15" si="11">PRODUCT(D14,E14)</f>
-        <v>7997.58</v>
-      </c>
-      <c r="G14" s="10">
-        <f>SUM(F14,F15)</f>
-        <v>10226.279999999999</v>
-      </c>
-      <c r="H14" s="10">
-        <v>10226.280000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>5372</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="10"/>
-        <v>874</v>
-      </c>
-      <c r="E15" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="11"/>
-        <v>2228.6999999999998</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>44250</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>12524</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" ref="D16:D17" si="12">SUM(C16,-C14)</f>
-        <v>2587</v>
-      </c>
-      <c r="E16" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" ref="F16:F17" si="13">PRODUCT(D16,E16)</f>
-        <v>12184.77</v>
-      </c>
-      <c r="G16" s="10">
-        <f>SUM(F16,F17)</f>
-        <v>15951.12</v>
-      </c>
-      <c r="H16" s="10">
-        <v>15951.12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>6849</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="12"/>
-        <v>1477</v>
-      </c>
-      <c r="E17" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="13"/>
-        <v>3766.35</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>44284</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>14421</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" ref="D18:D19" si="14">SUM(C18,-C16)</f>
-        <v>1897</v>
-      </c>
-      <c r="E18" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" ref="F18:F19" si="15">PRODUCT(D18,E18)</f>
-        <v>8934.8700000000008</v>
-      </c>
-      <c r="G18" s="10">
-        <f>SUM(F18,F19)</f>
-        <v>11778.12</v>
-      </c>
-      <c r="H18" s="10">
-        <v>11778.12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>7964</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="14"/>
-        <v>1115</v>
-      </c>
-      <c r="E19" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="15"/>
-        <v>2843.25</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>44315</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>15173</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" ref="D20:D21" si="16">SUM(C20,-C18)</f>
-        <v>752</v>
-      </c>
-      <c r="E20" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" ref="F20:F21" si="17">PRODUCT(D20,E20)</f>
-        <v>3541.92</v>
-      </c>
-      <c r="G20" s="10">
-        <f>SUM(F20,F21)</f>
-        <v>4936.7700000000004</v>
-      </c>
-      <c r="H20" s="10">
-        <v>4936.7700000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>8511</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="16"/>
-        <v>547</v>
-      </c>
-      <c r="E21" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="17"/>
-        <v>1394.85</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>44340</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>15653</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" ref="D22:D23" si="18">SUM(C22,-C20)</f>
-        <v>480</v>
-      </c>
-      <c r="E22" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" ref="F22:F23" si="19">PRODUCT(D22,E22)</f>
-        <v>2260.8000000000002</v>
-      </c>
-      <c r="G22" s="10">
-        <f>SUM(F22,F23)</f>
-        <v>2798.8500000000004</v>
-      </c>
-      <c r="H22" s="10">
-        <v>2798.95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
-        <v>8722</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="18"/>
-        <v>211</v>
-      </c>
-      <c r="E23" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" si="19"/>
-        <v>538.04999999999995</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>44376</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
-        <v>16063</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" ref="D24:D25" si="20">SUM(C24,-C22)</f>
-        <v>410</v>
-      </c>
-      <c r="E24" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F24" s="5">
-        <f t="shared" ref="F24:F25" si="21">PRODUCT(D24,E24)</f>
-        <v>1931.1</v>
-      </c>
-      <c r="G24" s="10">
-        <f>SUM(F24,F25)</f>
-        <v>2209.0499999999997</v>
-      </c>
-      <c r="H24" s="10">
-        <v>2209.0500000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3">
-        <v>8831</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="20"/>
-        <v>109</v>
-      </c>
-      <c r="E25" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F25" s="5">
-        <f t="shared" si="21"/>
-        <v>277.95</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>44417</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3">
-        <v>16633</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" ref="D26:D27" si="22">SUM(C26,-C24)</f>
-        <v>570</v>
-      </c>
-      <c r="E26" s="7">
-        <v>4.96</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" ref="F26:F27" si="23">PRODUCT(D26,E26)</f>
-        <v>2827.2</v>
-      </c>
-      <c r="G26" s="10">
-        <f>SUM(F26,F27)</f>
-        <v>3411.4399999999996</v>
-      </c>
-      <c r="H26" s="10">
-        <v>3411.44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3">
-        <v>9049</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" si="22"/>
-        <v>218</v>
-      </c>
-      <c r="E27" s="8">
-        <v>2.68</v>
-      </c>
-      <c r="F27" s="5">
-        <f t="shared" si="23"/>
-        <v>584.24</v>
-      </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>44441</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3">
-        <v>16912</v>
-      </c>
-      <c r="D28" s="3">
-        <f t="shared" ref="D28:D29" si="24">SUM(C28,-C26)</f>
-        <v>279</v>
-      </c>
-      <c r="E28" s="7">
-        <v>4.96</v>
-      </c>
-      <c r="F28" s="5">
-        <f t="shared" ref="F28:F29" si="25">PRODUCT(D28,E28)</f>
-        <v>1383.84</v>
-      </c>
-      <c r="G28" s="10">
-        <f>SUM(F28,F29)</f>
-        <v>1592.8799999999999</v>
-      </c>
-      <c r="H28" s="10">
-        <v>1592.88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3">
-        <v>9127</v>
-      </c>
-      <c r="D29" s="3">
-        <f t="shared" si="24"/>
-        <v>78</v>
-      </c>
-      <c r="E29" s="8">
-        <v>2.68</v>
-      </c>
-      <c r="F29" s="5">
-        <f t="shared" si="25"/>
-        <v>209.04000000000002</v>
-      </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G30" s="11">
-        <f>SUM(G2:G29)</f>
-        <v>75555.950000000026</v>
-      </c>
-      <c r="H30" s="11">
-        <f>SUM(H2:H29)</f>
-        <v>75556.050000000017</v>
+      <c r="G10" s="11">
+        <f>SUM(G4:G9)</f>
+        <v>5004.32</v>
+      </c>
+      <c r="H10" s="11">
+        <f>SUM(H4:H9)</f>
+        <v>5004.32</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/90ee.xlsx
+++ b/sputnik/personal/ee/90ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -474,10 +474,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -523,31 +523,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>44473</v>
+        <v>44537</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>17566</v>
+        <v>20416</v>
       </c>
       <c r="D2" s="3">
-        <f>SUM(C2,-C4)</f>
-        <v>654</v>
+        <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
+        <v>1910</v>
       </c>
       <c r="E2" s="7">
         <v>4.96</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" ref="F2:F3" si="0">PRODUCT(D2,E2)</f>
-        <v>3243.84</v>
+        <f t="shared" ref="F2:F3" si="1">PRODUCT(D2,E2)</f>
+        <v>9473.6</v>
       </c>
       <c r="G2" s="10">
         <f>SUM(F2,F3)</f>
-        <v>4787.5200000000004</v>
+        <v>11936.52</v>
       </c>
       <c r="H2" s="10">
-        <v>4787.5200000000004</v>
+        <v>11936.52</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -556,49 +556,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>9703</v>
+        <v>11381</v>
       </c>
       <c r="D3" s="3">
-        <f>SUM(C3,-C5)</f>
-        <v>576</v>
+        <f t="shared" si="0"/>
+        <v>919</v>
       </c>
       <c r="E3" s="8">
         <v>2.68</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" si="0"/>
-        <v>1543.68</v>
+        <f t="shared" si="1"/>
+        <v>2462.92</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
-        <v>44441</v>
+        <v>44506</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>16912</v>
+        <v>18506</v>
       </c>
       <c r="D4" s="3">
-        <f>SUM(C4,-C6)</f>
-        <v>279</v>
+        <f t="shared" ref="D4:D11" si="2">SUM(C4,-C6)</f>
+        <v>940</v>
       </c>
       <c r="E4" s="7">
         <v>4.96</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F7" si="1">PRODUCT(D4,E4)</f>
-        <v>1383.84</v>
+        <f t="shared" ref="F4:F5" si="3">PRODUCT(D4,E4)</f>
+        <v>4662.3999999999996</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>1592.8799999999999</v>
+        <v>6696.5199999999995</v>
       </c>
       <c r="H4" s="10">
-        <v>1592.88</v>
+        <v>6696.52</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -607,49 +607,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>9127</v>
+        <v>10462</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM(C5,-C7)</f>
-        <v>78</v>
+        <f t="shared" si="2"/>
+        <v>759</v>
       </c>
       <c r="E5" s="8">
         <v>2.68</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="1"/>
-        <v>209.04000000000002</v>
+        <f t="shared" si="3"/>
+        <v>2034.1200000000001</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>44417</v>
+      <c r="A6" s="13">
+        <v>44473</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>16633</v>
+        <v>17566</v>
       </c>
       <c r="D6" s="3">
-        <f>SUM(C6,-C8)</f>
-        <v>570</v>
+        <f t="shared" si="2"/>
+        <v>654</v>
       </c>
       <c r="E6" s="7">
         <v>4.96</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="1"/>
-        <v>2827.2</v>
+        <f t="shared" ref="F6:F7" si="4">PRODUCT(D6,E6)</f>
+        <v>3243.84</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>3411.4399999999996</v>
+        <v>4787.5200000000004</v>
       </c>
       <c r="H6" s="10">
-        <v>3411.44</v>
+        <v>4787.5200000000004</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -658,37 +658,50 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>9049</v>
+        <v>9703</v>
       </c>
       <c r="D7" s="3">
-        <f>SUM(C7,-C9)</f>
-        <v>218</v>
+        <f t="shared" si="2"/>
+        <v>576</v>
       </c>
       <c r="E7" s="8">
         <v>2.68</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="1"/>
-        <v>584.24</v>
+        <f t="shared" si="4"/>
+        <v>1543.68</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>44376</v>
+      <c r="A8" s="13">
+        <v>44441</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>16063</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+        <v>16912</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="2"/>
+        <v>279</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" ref="F8:F11" si="5">PRODUCT(D8,E8)</f>
+        <v>1383.84</v>
+      </c>
+      <c r="G8" s="10">
+        <f>SUM(F8,F9)</f>
+        <v>1592.8799999999999</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1592.88</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -696,22 +709,111 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>8831</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="5"/>
+        <v>9127</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="5"/>
+        <v>209.04000000000002</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G10" s="11">
-        <f>SUM(G4:G9)</f>
-        <v>5004.32</v>
-      </c>
-      <c r="H10" s="11">
-        <f>SUM(H4:H9)</f>
-        <v>5004.32</v>
+      <c r="A10" s="9">
+        <v>44417</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>16633</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="2"/>
+        <v>570</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="5"/>
+        <v>2827.2</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUM(F10,F11)</f>
+        <v>3411.4399999999996</v>
+      </c>
+      <c r="H10" s="10">
+        <v>3411.44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>9049</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="2"/>
+        <v>218</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="5"/>
+        <v>584.24</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>44376</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>16063</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>8831</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="11">
+        <f>SUM(G2:G13)</f>
+        <v>28424.880000000001</v>
+      </c>
+      <c r="H14" s="11">
+        <f>SUM(H2:H13)</f>
+        <v>28424.880000000001</v>
       </c>
     </row>
   </sheetData>
